--- a/gd/主界面/主UI规划新.xlsx
+++ b/gd/主界面/主UI规划新.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\主界面\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="1240" windowWidth="28380" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="4275" yWindow="1245" windowWidth="28380" windowHeight="17535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
   <si>
     <t>主UI入口</t>
   </si>
@@ -132,17 +132,21 @@
   </si>
   <si>
     <t>待定</t>
+  </si>
+  <si>
+    <t>红点提示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -150,7 +154,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -158,14 +162,20 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -187,8 +197,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -196,16 +208,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -254,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,7 +306,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,20 +491,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="265" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -500,8 +517,11 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -518,7 +538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -535,7 +555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -546,13 +566,13 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -566,7 +586,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -580,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -594,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -608,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -621,13 +641,16 @@
       <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -640,8 +663,11 @@
       <c r="E16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -655,7 +681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -668,8 +694,11 @@
       <c r="E18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -682,8 +711,11 @@
       <c r="E20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -697,7 +729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -711,7 +743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -725,7 +757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -738,8 +770,11 @@
       <c r="E24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -753,7 +788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -770,7 +805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -779,6 +814,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/gd/主界面/主UI规划新.xlsx
+++ b/gd/主界面/主UI规划新.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\主界面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Way4games\策划文档\主界面\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
   <si>
     <t>主UI入口</t>
   </si>
@@ -136,13 +136,29 @@
   <si>
     <t>红点提示</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有没有显示钱的需求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有没有显示活力的需求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>√（是贡献值）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,6 +193,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -491,20 +514,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="265" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="265" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -520,8 +547,14 @@
       <c r="I3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -537,8 +570,14 @@
       <c r="F5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -554,8 +593,14 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -571,8 +616,14 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -585,8 +636,14 @@
       <c r="E8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -599,8 +656,14 @@
       <c r="E9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -613,8 +676,14 @@
       <c r="E10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -627,8 +696,14 @@
       <c r="E11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -644,13 +719,19 @@
       <c r="I12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -666,8 +747,14 @@
       <c r="I16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -680,8 +767,14 @@
       <c r="E17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -697,8 +790,14 @@
       <c r="I18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -714,8 +813,14 @@
       <c r="I20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -728,8 +833,14 @@
       <c r="E21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -742,8 +853,14 @@
       <c r="E22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -756,8 +873,14 @@
       <c r="E23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -773,8 +896,14 @@
       <c r="I24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -787,8 +916,14 @@
       <c r="E25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -804,8 +939,14 @@
       <c r="G26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>

--- a/gd/主界面/主UI规划新.xlsx
+++ b/gd/主界面/主UI规划新.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="265" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -634,7 +634,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
@@ -654,7 +654,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
         <v>40</v>

--- a/gd/主界面/主UI规划新.xlsx
+++ b/gd/主界面/主UI规划新.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Way4games\策划文档\主界面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\主界面\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="41">
   <si>
     <t>主UI入口</t>
   </si>
@@ -107,9 +107,6 @@
     <t>进全屏</t>
   </si>
   <si>
-    <t>再商量</t>
-  </si>
-  <si>
     <t>2D图底板</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
   </si>
   <si>
     <t>图鉴+1层</t>
-  </si>
-  <si>
-    <t>等帆爷？</t>
   </si>
   <si>
     <t>大地图</t>
@@ -152,6 +146,14 @@
   <si>
     <t>？</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从宠物进入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -203,12 +205,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5BD4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -227,9 +235,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -517,7 +526,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="265" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -545,13 +554,13 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
         <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -568,7 +577,7 @@
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
@@ -591,7 +600,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
@@ -611,13 +620,13 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
         <v>24</v>
@@ -634,13 +643,13 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -654,13 +663,13 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -714,7 +723,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
         <v>25</v>
@@ -735,14 +744,14 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
@@ -758,14 +767,14 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" t="s">
         <v>25</v>
@@ -785,16 +794,16 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
         <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -808,7 +817,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20" t="s">
         <v>25</v>
@@ -831,7 +840,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J21" t="s">
         <v>25</v>
@@ -851,7 +860,7 @@
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J22" t="s">
         <v>24</v>
@@ -871,7 +880,7 @@
         <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
         <v>24</v>
@@ -891,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
@@ -914,7 +923,7 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J25" t="s">
         <v>25</v>
@@ -925,19 +934,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="G26" t="s">
-        <v>27</v>
+      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="J26" t="s">
         <v>24</v>
@@ -948,10 +954,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
